--- a/tables_new/CovidDrugScreen_Survival.xlsx
+++ b/tables_new/CovidDrugScreen_Survival.xlsx
@@ -584,6 +584,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -959,8 +960,8 @@
   <dimension ref="A1:R578"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C564" sqref="C564"/>
+      <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A573" sqref="A573:XFD578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
